--- a/Hoa11.xlsx
+++ b/Hoa11.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\LTUDQL1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\LTUDQL1\DA-LTUDQL1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="103">
   <si>
     <t>maCH</t>
   </si>
@@ -58,12 +58,6 @@
     <t>Dễ Ăn</t>
   </si>
   <si>
-    <t>môn học</t>
-  </si>
-  <si>
-    <t>Khối</t>
-  </si>
-  <si>
     <t>Trong các cặp chất sau đây, cặp chất nào cùng tồn tại trong dung dịch?</t>
   </si>
   <si>
@@ -3972,19 +3966,35 @@
   </si>
   <si>
     <t>Tính số mol, tham khảo bt chương 8</t>
+  </si>
+  <si>
+    <t>TenCD</t>
+  </si>
+  <si>
+    <t>maMH</t>
+  </si>
+  <si>
+    <t>maKhoi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4045,16 +4055,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4361,8 +4374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4377,20 +4390,20 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="F1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -4398,19 +4411,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" t="s">
         <v>91</v>
-      </c>
-      <c r="F2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.35">
@@ -4418,19 +4431,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4438,19 +4451,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" t="s">
         <v>91</v>
-      </c>
-      <c r="F4" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
@@ -4458,19 +4471,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.35">
@@ -4478,19 +4491,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -4498,19 +4511,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -4518,19 +4531,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -4538,19 +4551,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.35">
@@ -4558,19 +4571,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -4578,19 +4591,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -4598,19 +4611,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -4618,19 +4631,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -4638,19 +4651,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C14">
         <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -4658,19 +4671,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -4678,19 +4691,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C16">
         <v>3</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" t="s">
         <v>91</v>
-      </c>
-      <c r="F16" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -4698,19 +4711,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C17">
         <v>4</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -4718,19 +4731,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C18">
         <v>4</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -4738,19 +4751,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C19">
         <v>4</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -4758,19 +4771,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C20">
         <v>4</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -4778,19 +4791,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C21">
         <v>4</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -4837,7 +4850,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -4852,7 +4865,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -4867,7 +4880,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -4882,7 +4895,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -4897,7 +4910,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -4912,7 +4925,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -4927,7 +4940,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -4942,7 +4955,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -4957,7 +4970,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -4972,7 +4985,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -4987,7 +5000,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -5002,7 +5015,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -5017,7 +5030,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -5032,7 +5045,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -5047,7 +5060,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -5062,7 +5075,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -5077,7 +5090,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
@@ -5092,7 +5105,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -5107,7 +5120,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -5122,7 +5135,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -5137,7 +5150,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
@@ -5152,7 +5165,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -5167,7 +5180,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -5257,7 +5270,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -5272,7 +5285,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -5287,7 +5300,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D32" t="b">
         <v>1</v>
@@ -5302,7 +5315,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -5317,7 +5330,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D34" t="b">
         <v>1</v>
@@ -5332,7 +5345,7 @@
         <v>34</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
@@ -5347,7 +5360,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D36" t="b">
         <v>0</v>
@@ -5362,7 +5375,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D37" t="b">
         <v>0</v>
@@ -5377,7 +5390,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D38" t="b">
         <v>0</v>
@@ -5392,7 +5405,7 @@
         <v>38</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D39" t="b">
         <v>0</v>
@@ -5407,7 +5420,7 @@
         <v>39</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D40" t="b">
         <v>0</v>
@@ -5422,7 +5435,7 @@
         <v>40</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D41" t="b">
         <v>1</v>
@@ -5437,7 +5450,7 @@
         <v>41</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D42" t="b">
         <v>0</v>
@@ -5452,7 +5465,7 @@
         <v>42</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D43" t="b">
         <v>0</v>
@@ -5467,7 +5480,7 @@
         <v>43</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
@@ -5482,7 +5495,7 @@
         <v>44</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D45" t="b">
         <v>1</v>
@@ -5497,7 +5510,7 @@
         <v>45</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D46" t="b">
         <v>1</v>
@@ -5512,7 +5525,7 @@
         <v>46</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D47" t="b">
         <v>0</v>
@@ -5527,7 +5540,7 @@
         <v>47</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D48" t="b">
         <v>0</v>
@@ -5542,7 +5555,7 @@
         <v>48</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D49" t="b">
         <v>0</v>
@@ -5617,7 +5630,7 @@
         <v>53</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D54" t="b">
         <v>0</v>
@@ -5632,7 +5645,7 @@
         <v>54</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D55" t="b">
         <v>0</v>
@@ -5647,7 +5660,7 @@
         <v>55</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D56" t="b">
         <v>0</v>
@@ -5662,7 +5675,7 @@
         <v>56</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D57" t="b">
         <v>1</v>
@@ -5677,7 +5690,7 @@
         <v>57</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D58" t="b">
         <v>0</v>
@@ -5692,7 +5705,7 @@
         <v>58</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D59" t="b">
         <v>1</v>
@@ -5707,7 +5720,7 @@
         <v>59</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D60" t="b">
         <v>0</v>
@@ -5722,7 +5735,7 @@
         <v>60</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D61" t="b">
         <v>0</v>
@@ -5737,7 +5750,7 @@
         <v>61</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D62" t="b">
         <v>0</v>
@@ -5752,7 +5765,7 @@
         <v>62</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D63" t="b">
         <v>0</v>
@@ -5767,7 +5780,7 @@
         <v>63</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D64" t="b">
         <v>1</v>
@@ -5782,7 +5795,7 @@
         <v>64</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D65" t="b">
         <v>0</v>
@@ -5797,7 +5810,7 @@
         <v>65</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D66" t="b">
         <v>0</v>
@@ -5812,7 +5825,7 @@
         <v>66</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D67" t="b">
         <v>0</v>
@@ -5827,7 +5840,7 @@
         <v>67</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D68" t="b">
         <v>0</v>
@@ -5842,7 +5855,7 @@
         <v>68</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D69" t="b">
         <v>1</v>
@@ -6039,7 +6052,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6049,7 +6062,7 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
